--- a/data/trans_dic/P41A_R2-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P41A_R2-Dificultad-trans_dic.xlsx
@@ -697,7 +697,7 @@
         <v>0.4088744804335513</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.3494097047556989</v>
+        <v>0.349409704755699</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.3747013725494853</v>
+        <v>0.3731684664647804</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.4202799386180184</v>
+        <v>0.416673499757982</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.4178901931021091</v>
+        <v>0.4194403821919139</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.3494496139094394</v>
+        <v>0.3474675210587465</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.2729788516170444</v>
+        <v>0.2724775994480541</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.3235871811608577</v>
+        <v>0.3303377058853967</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.3466921605118587</v>
+        <v>0.3468344669356029</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.2534903197153459</v>
+        <v>0.2516887746296211</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.3222125889558085</v>
+        <v>0.3213520680752961</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.3779220460358106</v>
+        <v>0.3802456187286036</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.3888067799037617</v>
+        <v>0.3888494570837633</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.3117681651685522</v>
+        <v>0.3137470991881988</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.4556046524342008</v>
+        <v>0.4529657509205766</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.4797567640880721</v>
+        <v>0.4783346983661102</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.4789465202479232</v>
+        <v>0.4777034783478317</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.4725869486038257</v>
+        <v>0.4654702347386013</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.3350265342526793</v>
+        <v>0.3356164792919852</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.3850174119916838</v>
+        <v>0.38737268757927</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.4037082362111879</v>
+        <v>0.4018707265917493</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.3434065184754022</v>
+        <v>0.3444398999615103</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.3717039860782516</v>
+        <v>0.3747055703508598</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.4228829901721803</v>
+        <v>0.42338013523694</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.4296806663794737</v>
+        <v>0.4315848515695754</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.3852815162702454</v>
+        <v>0.3854888849376782</v>
       </c>
     </row>
     <row r="7">
@@ -821,7 +821,7 @@
         <v>0.3904876338137693</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.3648001585823089</v>
+        <v>0.3648001585823088</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.460745194566857</v>
@@ -833,7 +833,7 @@
         <v>0.4321000337728511</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.4020726393739051</v>
+        <v>0.4020726393739052</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.4811774419044858</v>
+        <v>0.4814188553445385</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.4963836249545371</v>
+        <v>0.495358074851093</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.443432462248634</v>
+        <v>0.4465752192481633</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.4016495402075436</v>
+        <v>0.4007812324100253</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.3768431619207498</v>
+        <v>0.3771194672600932</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.368085739822227</v>
+        <v>0.3671715486419452</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.3612882013408917</v>
+        <v>0.3606026820575417</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.3329547145672243</v>
+        <v>0.3318459260364831</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.4377609040084172</v>
+        <v>0.439114181190238</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.437652134654773</v>
+        <v>0.4354715777143349</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.4086400863133529</v>
+        <v>0.4089500291209997</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.3773004864851116</v>
+        <v>0.3761791761153905</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.5458915696551401</v>
+        <v>0.5433102700962327</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.5599596186635131</v>
+        <v>0.5613080419902827</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.5120973214000221</v>
+        <v>0.5125279557848879</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.484498039593175</v>
+        <v>0.4844435256151746</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.4372216333913924</v>
+        <v>0.4371696172414009</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.4279812243263654</v>
+        <v>0.4262677569450941</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.4201467402404411</v>
+        <v>0.4201508512938563</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.3990215614102404</v>
+        <v>0.3956725467345788</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.4804665757597096</v>
+        <v>0.4812602361104844</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.4842390833378332</v>
+        <v>0.480431356956236</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.4529865946298523</v>
+        <v>0.45339378491739</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.428347166891875</v>
+        <v>0.4265623312604099</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.501472829316872</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.4082709877101761</v>
+        <v>0.408270987710176</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.4560923426021599</v>
@@ -957,7 +957,7 @@
         <v>0.4053990076354005</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.3741628099606105</v>
+        <v>0.3741628099606107</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.491438762254148</v>
@@ -969,7 +969,7 @@
         <v>0.4551244633824018</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.3912127308585465</v>
+        <v>0.3912127308585466</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.4930102450912139</v>
+        <v>0.4947527541851467</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.4639561583651509</v>
+        <v>0.4635170961341417</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.4695461121927299</v>
+        <v>0.4680922348305407</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.3690085176515246</v>
+        <v>0.3715996190859776</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.426006334503315</v>
+        <v>0.4267796138042272</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.36314052261427</v>
+        <v>0.3654522472009381</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.3708240520025385</v>
+        <v>0.3704911538317415</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.3457062591673337</v>
+        <v>0.3446769123856697</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.4701945313980204</v>
+        <v>0.4678182262178759</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.423825022901886</v>
+        <v>0.4225677285222925</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.4303141977883943</v>
+        <v>0.4273049089614404</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.3674100878568139</v>
+        <v>0.3667383516022343</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.5521369789150563</v>
+        <v>0.5538575025102279</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.5364916345873567</v>
+        <v>0.5305460131737801</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.5400545419737613</v>
+        <v>0.5364967073276123</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.4520283794250357</v>
+        <v>0.4503969539113546</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.4849325600751954</v>
+        <v>0.4863883367661464</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.4270896299889695</v>
+        <v>0.4324754213945407</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.4420757144375161</v>
+        <v>0.4447498624974655</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.4071903097488491</v>
+        <v>0.4076799172397026</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.5152085910426885</v>
+        <v>0.5117294295331658</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.4730704470627038</v>
+        <v>0.47154404473958</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.4812862271402728</v>
+        <v>0.4797787234001739</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.4173129939781552</v>
+        <v>0.4186407189429825</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.4084875685582841</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.4052551177324203</v>
+        <v>0.4052551177324202</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.5315377034201179</v>
@@ -1105,7 +1105,7 @@
         <v>0.3971241064049443</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.3696028025456297</v>
+        <v>0.3696028025456298</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.5015094623760916</v>
+        <v>0.499937752945824</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.4650664415922918</v>
+        <v>0.4697591382526994</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.3645161746546643</v>
+        <v>0.3626915065805565</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.3680163088377952</v>
+        <v>0.3653802032615741</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.4770120382210383</v>
+        <v>0.4776071441750389</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.3774621607649505</v>
+        <v>0.3740512641397727</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.3404215094490238</v>
+        <v>0.3420008456331208</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.2988431768502729</v>
+        <v>0.2968762514527908</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.5040498942253889</v>
+        <v>0.5061054091347764</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.4348630840041964</v>
+        <v>0.437332535826899</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.3658655934088715</v>
+        <v>0.3657106779545203</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.3465010263118464</v>
+        <v>0.3432571246450208</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.5971310718290901</v>
+        <v>0.5971874420165174</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.560749218512679</v>
+        <v>0.5598028313507541</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.4558548081654357</v>
+        <v>0.4525244806068849</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.4448067341949358</v>
+        <v>0.4435701271249357</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.5834982265563741</v>
+        <v>0.5858529153839156</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.4709093915820113</v>
+        <v>0.4711705843997573</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.4285240984983272</v>
+        <v>0.4306036409342473</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.3612525742961749</v>
+        <v>0.3626115070994322</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.5768680959385997</v>
+        <v>0.5805247289333532</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.5027909043889306</v>
+        <v>0.5048634387173009</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.428288363030406</v>
+        <v>0.4302104307541739</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.3967797482032311</v>
+        <v>0.3953812683432312</v>
       </c>
     </row>
     <row r="16">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.485530238643228</v>
+        <v>0.4855196847328631</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.4754634949773266</v>
+        <v>0.4764568110448321</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.4472530589697746</v>
+        <v>0.4435233832814372</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.3955978730135087</v>
+        <v>0.3934752881136408</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.3899465796632837</v>
+        <v>0.3888851868194492</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.3711075333131337</v>
+        <v>0.3701407138195348</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.3722965054268338</v>
+        <v>0.3718361546272589</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.3318081840521389</v>
+        <v>0.3287103327050696</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.4410799857383887</v>
+        <v>0.4405769190831168</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.4290085513919458</v>
+        <v>0.4279022210498856</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.4136457554271886</v>
+        <v>0.4115268019715572</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.3672972384048741</v>
+        <v>0.3666947453827233</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.5215780381835894</v>
+        <v>0.521111706151754</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.5122654438495396</v>
+        <v>0.5109806017963394</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.4801979480233603</v>
+        <v>0.4800273457501376</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.4384880797653575</v>
+        <v>0.4379026034838274</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.4239312356427954</v>
+        <v>0.4231929004806465</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.4050229229124313</v>
+        <v>0.4059997827864399</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.4047562624054433</v>
+        <v>0.4055081563753173</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.3652967797819967</v>
+        <v>0.363371920382927</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.4682084788958895</v>
+        <v>0.4653233769103816</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.4535722343229533</v>
+        <v>0.4517656814400468</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.4375816211139458</v>
+        <v>0.4371036943805804</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.3955577797404075</v>
+        <v>0.3958214088960151</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>218878</v>
+        <v>217983</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>437912</v>
+        <v>434154</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>471030</v>
+        <v>472777</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>115427</v>
+        <v>114772</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>251777</v>
+        <v>251315</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>361742</v>
+        <v>369288</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>435407</v>
+        <v>435586</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>93097</v>
+        <v>92435</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>485405</v>
+        <v>484109</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>816260</v>
+        <v>821279</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>926546</v>
+        <v>926648</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>217480</v>
+        <v>218860</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>266137</v>
+        <v>264596</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>499884</v>
+        <v>498402</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>539850</v>
+        <v>538449</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>156101</v>
+        <v>153750</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>309006</v>
+        <v>309550</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>430416</v>
+        <v>433049</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>507013</v>
+        <v>504705</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>126119</v>
+        <v>126499</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>559962</v>
+        <v>564484</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>913370</v>
+        <v>914444</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>1023951</v>
+        <v>1028489</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>268760</v>
+        <v>268905</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>517757</v>
+        <v>518016</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>484559</v>
+        <v>483558</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>401641</v>
+        <v>404487</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>253610</v>
+        <v>253062</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>395922</v>
+        <v>396212</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>402400</v>
+        <v>401400</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>360770</v>
+        <v>360085</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>225295</v>
+        <v>224545</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>930963</v>
+        <v>933841</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>905678</v>
+        <v>901165</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>778181</v>
+        <v>778771</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>493537</v>
+        <v>492070</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>587390</v>
+        <v>584613</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>546620</v>
+        <v>547937</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>463834</v>
+        <v>464224</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>305922</v>
+        <v>305888</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>459357</v>
+        <v>459302</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>467879</v>
+        <v>466006</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>419544</v>
+        <v>419548</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>269999</v>
+        <v>267733</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>1021783</v>
+        <v>1023471</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>1002085</v>
+        <v>994205</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>862631</v>
+        <v>863406</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>560310</v>
+        <v>557975</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>549730</v>
+        <v>551673</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>410170</v>
+        <v>409782</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>386793</v>
+        <v>385595</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>271819</v>
+        <v>273728</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>420596</v>
+        <v>421360</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>318037</v>
+        <v>320062</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>284724</v>
+        <v>284468</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>254779</v>
+        <v>254020</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>988512</v>
+        <v>983516</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>745875</v>
+        <v>743663</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>684876</v>
+        <v>680087</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>541416</v>
+        <v>540426</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>615659</v>
+        <v>617577</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>474297</v>
+        <v>469040</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>444875</v>
+        <v>441944</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>332973</v>
+        <v>331771</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>478774</v>
+        <v>480211</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>374043</v>
+        <v>378760</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>339432</v>
+        <v>341485</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>300091</v>
+        <v>300452</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>1083147</v>
+        <v>1075833</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>832541</v>
+        <v>829854</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>766002</v>
+        <v>763603</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>614952</v>
+        <v>616909</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>222854</v>
+        <v>222156</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>233939</v>
+        <v>236300</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>183682</v>
+        <v>182763</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>289963</v>
+        <v>287886</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>160525</v>
+        <v>160725</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>170891</v>
+        <v>169346</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>166704</v>
+        <v>167477</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>212501</v>
+        <v>211102</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>393607</v>
+        <v>395212</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>415624</v>
+        <v>417984</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>363526</v>
+        <v>363372</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>519400</v>
+        <v>514537</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>265345</v>
+        <v>265370</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>282070</v>
+        <v>281594</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>229708</v>
+        <v>228030</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>350466</v>
+        <v>349492</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>196359</v>
+        <v>197152</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>213198</v>
+        <v>213316</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>209847</v>
+        <v>210866</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>256879</v>
+        <v>257845</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>450469</v>
+        <v>453325</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>480546</v>
+        <v>482527</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>425549</v>
+        <v>427459</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>594767</v>
+        <v>592671</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>1563202</v>
+        <v>1563168</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>1619060</v>
+        <v>1622442</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>1503030</v>
+        <v>1490496</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>983559</v>
+        <v>978281</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>1285568</v>
+        <v>1282069</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>1313597</v>
+        <v>1310174</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>1307493</v>
+        <v>1305876</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>826856</v>
+        <v>819136</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>2874234</v>
+        <v>2870956</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>2979417</v>
+        <v>2971734</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>2842800</v>
+        <v>2828237</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>1828490</v>
+        <v>1825490</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>1679260</v>
+        <v>1677759</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>1744379</v>
+        <v>1740003</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>1613744</v>
+        <v>1613171</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>1090195</v>
+        <v>1088739</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>1397608</v>
+        <v>1395174</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>1433646</v>
+        <v>1437104</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>1421491</v>
+        <v>1424131</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>910309</v>
+        <v>905512</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>3051013</v>
+        <v>3032213</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>3150009</v>
+        <v>3137463</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>3007300</v>
+        <v>3004016</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>1969177</v>
+        <v>1970490</v>
       </c>
     </row>
     <row r="24">
